--- a/tests/dust_data/old_formats/UCF013LR2_mod.xlsx
+++ b/tests/dust_data/old_formats/UCF013LR2_mod.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\npetraco\latex\papers\dust\DUST PROJECT\dustproj\tests\dust_data\old_formats\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E92970-E505-46CB-9AE7-01666B83507D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="380" windowWidth="20840" windowHeight="7960"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dust_table_1.1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="117">
   <si>
     <t xml:space="preserve">Human Hair   Natural </t>
   </si>
@@ -370,15 +376,12 @@
   </si>
   <si>
     <t>Dyed Purple</t>
-  </si>
-  <si>
-    <t>Other (    Animal)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1203,19 +1206,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1250,7 +1253,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1258,17 +1261,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1285,7 +1288,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -1293,12 +1296,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1336,22 +1339,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -1359,7 +1362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>96</v>
       </c>
@@ -1367,12 +1370,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1392,32 +1395,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1473,34 +1476,34 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1515,7 +1518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -1565,17 +1568,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -1598,62 +1601,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>108</v>
       </c>
@@ -1676,137 +1679,137 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>104</v>
       </c>
@@ -1814,22 +1817,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>113</v>
       </c>
